--- a/Sukirti/sukirti_unix_assignment.xlsx
+++ b/Sukirti/sukirti_unix_assignment.xlsx
@@ -660,7 +660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -834,7 +834,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>5</v>
       </c>
@@ -851,7 +851,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>6</v>
       </c>
